--- a/links.xlsx
+++ b/links.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Github\dados-economicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98959A3-8E25-4DD7-99C9-38555FBC30FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE61CDA5-DC93-4DEA-A87E-8996CA732CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{93878809-81D1-40E3-86E7-4CE78EDFD5D8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93878809-81D1-40E3-86E7-4CE78EDFD5D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Dados e links" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Dado">Planilha1!$A:$A</definedName>
-    <definedName name="Link">Planilha1!$B:$B</definedName>
+    <definedName name="Dado">#REF!</definedName>
+    <definedName name="Link">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>IPCA</t>
   </si>
@@ -80,10 +79,34 @@
     <t>http://www.ipeadata.gov.br/ExibeSerie.aspx?serid=32237&amp;module=M</t>
   </si>
   <si>
-    <t>Taxa de juros nominal - Overnight / Selic</t>
-  </si>
-  <si>
-    <t>http://www.ipeadata.gov.br/exibeserie.aspx?serid=38402</t>
+    <t>IBOVESPA fechamento mensal</t>
+  </si>
+  <si>
+    <t>http://www.ipeadata.gov.br/ExibeSerie.aspx?serid=38402</t>
+  </si>
+  <si>
+    <t>IBOVESPA fechamento diário</t>
+  </si>
+  <si>
+    <t>http://www.ipeadata.gov.br/ExibeSerie.aspx?serid=31875&amp;module=M</t>
+  </si>
+  <si>
+    <t>http://www.ipeadata.gov.br//ExibeSerie.aspx?serid=38589&amp;module=M</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>Diário</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Taxa de juros nominal Overnight Selic</t>
   </si>
 </sst>
 </file>
@@ -128,14 +151,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -451,192 +468,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371440BC-3502-409C-B677-C4663C192281}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BFEF9EFE-4AEF-4B8C-88DB-54BA7C9B0866}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{26F906C2-EB1B-4A2A-B2F8-8D4A2710C2E0}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{5284E79B-7E30-4A6A-B1C8-EC3BC9D457F3}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{8FA2C0A9-30EA-4C5D-B617-DFA4B35BC059}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{CAE1B448-00AE-4C10-97AA-36CCB4B954A3}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{E9497955-7186-4DB2-A3F2-DD8836D54635}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{53A93642-7BC2-48E9-9CF2-362CF7E64BA0}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{FE89F647-42E3-4D3A-9E70-005BA6F39F0C}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36FF9EE-443A-4B00-B39A-EBD43354F809}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="67.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{C8EE22E9-7E5B-4769-A05F-4956BB6F8F6B}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{1953C7F2-FD36-43F6-A7D2-5EE34387FC53}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{DFC95DED-8243-4882-8D47-F6CD5098BECE}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{7A61DD86-44B2-4D96-A3A6-F363F0D57997}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{330F0A14-6B72-4869-8FAD-DD369F124D4F}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{5E692AD6-3E0A-4011-B629-822477544EAF}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{4066F9E6-FC35-435B-BCED-D71047E75E43}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{CE481766-927E-43E7-807D-C8332BE31D2D}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{C3412B48-E545-4E3C-A2BF-36AF0000FF51}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{2E781BB3-14C5-4CA9-A800-0912685383E3}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>